--- a/TestRuleSetTeamBurroughsTenderDecision.xlsx
+++ b/TestRuleSetTeamBurroughsTenderDecision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eze/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5021044-0C2C-CF49-BADB-AD10496E4C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FAC21C1C-51AE-E344-AA19-FF164097CEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <t>&gt;0</t>
   </si>
   <si>
-    <t>!=inList({"SC","NC"})</t>
+    <t>!=inList({"00"})</t>
   </si>
 </sst>
 </file>
@@ -899,7 +899,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/TestRuleSetTeamBurroughsTenderDecision.xlsx
+++ b/TestRuleSetTeamBurroughsTenderDecision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eze/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FAC21C1C-51AE-E344-AA19-FF164097CEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D3619E9E-D5CF-3147-8031-23E4D2600E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <t>&gt;0</t>
   </si>
   <si>
-    <t>!=inList({"00"})</t>
+    <t>Any</t>
   </si>
 </sst>
 </file>
@@ -899,7 +899,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
